--- a/theme/codebook_debriefing.xlsx
+++ b/theme/codebook_debriefing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ai_sec_dev\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE232984-6390-44B4-83AF-588F2B1BA83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DC5F22-4B46-4DD2-A090-59D7ED742D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="19420" firstSheet="1" activeTab="1" xr2:uid="{5DF71104-D53B-4CC1-AE8D-1A174AA18D66}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="19420" xr2:uid="{5DF71104-D53B-4CC1-AE8D-1A174AA18D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Taxonomy" sheetId="16" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="656">
   <si>
     <t>Freq (new)</t>
   </si>
@@ -2122,12 +2122,15 @@
   <si>
     <t>(1,9)</t>
   </si>
+  <si>
+    <t>Secure File Format Adoption</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,8 +2151,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2180,12 +2199,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2199,7 +2212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2280,19 +2293,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2628,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281877C6-5434-4B1B-A38D-8AAABE8A308D}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2639,115 +2663,122 @@
     <col min="1" max="1" width="54.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>648</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="K1" t="s">
+      <c r="H1" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="N1" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E2" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F2" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="K2" t="s">
+      <c r="H2" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I2" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="M2" t="s">
+      <c r="J2" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="N2" t="s">
+      <c r="K2" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L2" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="P2" t="s">
+      <c r="M2" s="33" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" t="s">
+      <c r="D3" s="30" t="s">
         <v>523</v>
       </c>
-      <c r="G3">
+      <c r="E3" s="30">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="F3" s="30">
         <v>16</v>
       </c>
-      <c r="I3">
-        <f>SUM(G3:H3)</f>
+      <c r="G3" s="30">
+        <f>SUM(E3:F3)</f>
         <v>16</v>
       </c>
-      <c r="K3">
+      <c r="H3" s="38">
         <v>85</v>
       </c>
-      <c r="L3">
+      <c r="I3" s="38">
         <v>144</v>
       </c>
-      <c r="M3">
-        <f>SUM(K3:L3)</f>
+      <c r="J3" s="38">
+        <f>SUM(H3:I3)</f>
         <v>229</v>
       </c>
-      <c r="N3">
-        <f>SUM(K3:K19)</f>
+      <c r="K3" s="38">
+        <f>SUM(H3:H19)</f>
         <v>448</v>
       </c>
-      <c r="O3">
-        <f>SUM(L3:L19)</f>
+      <c r="L3" s="38">
+        <f>SUM(I3:I19)</f>
         <v>497</v>
       </c>
-      <c r="P3">
-        <f>SUM(M3:M19)</f>
+      <c r="M3" s="38">
+        <f>SUM(J3:J19)</f>
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>490</v>
       </c>
@@ -2757,23 +2788,27 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" t="s">
+      <c r="D4" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="G4">
+      <c r="E4" s="30">
         <v>46</v>
       </c>
-      <c r="H4">
+      <c r="F4" s="30">
         <v>39</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I34" si="0">SUM(G4:H4)</f>
+      <c r="G4" s="30">
+        <f t="shared" ref="G4:G34" si="0">SUM(E4:F4)</f>
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2783,23 +2818,27 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" t="s">
+      <c r="D5" s="30" t="s">
         <v>637</v>
       </c>
-      <c r="G5">
+      <c r="E5" s="30">
         <v>37</v>
       </c>
-      <c r="H5">
+      <c r="F5" s="30">
         <v>60</v>
       </c>
-      <c r="I5">
+      <c r="G5" s="30">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -2809,23 +2848,27 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" t="s">
+      <c r="D6" s="30" t="s">
         <v>527</v>
       </c>
-      <c r="G6">
+      <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="30">
         <v>13</v>
       </c>
-      <c r="I6">
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2835,23 +2878,27 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" t="s">
+      <c r="D7" s="30" t="s">
         <v>528</v>
       </c>
-      <c r="G7">
+      <c r="E7" s="30">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="F7" s="30">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="G7" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>43</v>
       </c>
@@ -2861,23 +2908,27 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" t="s">
+      <c r="D8" s="30" t="s">
         <v>529</v>
       </c>
-      <c r="G8">
+      <c r="E8" s="30">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="F8" s="30">
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="G8" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>49</v>
       </c>
@@ -2887,23 +2938,27 @@
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" t="s">
+      <c r="D9" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="G9">
+      <c r="E9" s="30">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="F9" s="30">
         <v>5</v>
       </c>
-      <c r="I9">
+      <c r="G9" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
         <v>492</v>
       </c>
@@ -2913,33 +2968,34 @@
       <c r="C10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" t="s">
+      <c r="D10" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="G10">
+      <c r="E10" s="30">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="F10" s="30">
         <v>47</v>
       </c>
-      <c r="I10">
+      <c r="G10" s="30">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="K10">
+      <c r="H10" s="38">
         <v>43</v>
       </c>
-      <c r="L10">
+      <c r="I10" s="38">
         <v>119</v>
       </c>
-      <c r="M10">
-        <f>SUM(K10:L10)</f>
+      <c r="J10" s="38">
+        <f>SUM(H10:I10)</f>
         <v>162</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>63</v>
       </c>
@@ -2949,59 +3005,64 @@
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" t="s">
+      <c r="D11" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="G11">
+      <c r="E11" s="30">
         <v>34</v>
       </c>
-      <c r="H11">
+      <c r="F11" s="30">
         <v>72</v>
       </c>
-      <c r="I11">
+      <c r="G11" s="30">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" t="s">
+      <c r="D12" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="G12">
+      <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="F12" s="30">
         <v>3</v>
       </c>
-      <c r="I12">
+      <c r="G12" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="H12" s="38">
         <v>80</v>
       </c>
-      <c r="L12">
+      <c r="I12" s="38">
         <v>102</v>
       </c>
-      <c r="M12">
-        <f>SUM(K12:L12)</f>
+      <c r="J12" s="38">
+        <f>SUM(H12:I12)</f>
         <v>182</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -3011,23 +3072,27 @@
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" t="s">
+      <c r="D13" s="30" t="s">
         <v>638</v>
       </c>
-      <c r="G13">
+      <c r="E13" s="30">
         <v>77</v>
       </c>
-      <c r="H13">
+      <c r="F13" s="30">
         <v>68</v>
       </c>
-      <c r="I13">
+      <c r="G13" s="30">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>81</v>
       </c>
@@ -3037,59 +3102,64 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" t="s">
+      <c r="D14" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="G14">
+      <c r="E14" s="30">
         <v>3</v>
       </c>
-      <c r="H14">
+      <c r="F14" s="30">
         <v>31</v>
       </c>
-      <c r="I14">
+      <c r="G14" s="30">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" t="s">
+      <c r="D15" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="G15">
+      <c r="E15" s="30">
         <v>3</v>
       </c>
-      <c r="H15">
+      <c r="F15" s="30">
         <v>31</v>
       </c>
-      <c r="I15">
+      <c r="G15" s="30">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="K15">
+      <c r="H15" s="38">
         <v>3</v>
       </c>
-      <c r="L15">
+      <c r="I15" s="38">
         <v>44</v>
       </c>
-      <c r="M15">
-        <f>SUM(K15:L15)</f>
+      <c r="J15" s="38">
+        <f>SUM(H15:I15)</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -3099,59 +3169,64 @@
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" t="s">
+      <c r="D16" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="G16">
+      <c r="E16" s="30">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="F16" s="30">
         <v>13</v>
       </c>
-      <c r="I16">
+      <c r="G16" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" t="s">
+      <c r="D17" s="30" t="s">
         <v>563</v>
       </c>
-      <c r="G17">
+      <c r="E17" s="30">
         <v>98</v>
       </c>
-      <c r="H17">
+      <c r="F17" s="30">
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="G17" s="30">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="K17">
+      <c r="H17" s="38">
         <v>237</v>
       </c>
-      <c r="L17">
+      <c r="I17" s="38">
         <v>88</v>
       </c>
-      <c r="M17">
-        <f>SUM(K17:L17)</f>
+      <c r="J17" s="38">
+        <f>SUM(H17:I17)</f>
         <v>325</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>627</v>
       </c>
@@ -3161,23 +3236,28 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" t="s">
+      <c r="D18" s="30" t="s">
         <v>639</v>
       </c>
-      <c r="G18">
+      <c r="E18" s="30">
         <v>105</v>
       </c>
-      <c r="H18">
+      <c r="F18" s="30">
         <v>58</v>
       </c>
-      <c r="I18">
+      <c r="G18" s="30">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="30"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>628</v>
       </c>
@@ -3187,23 +3267,27 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" t="s">
+      <c r="D19" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="G19">
+      <c r="E19" s="30">
         <v>34</v>
       </c>
-      <c r="H19">
+      <c r="F19" s="30">
         <v>22</v>
       </c>
-      <c r="I19">
+      <c r="G19" s="30">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
         <v>121</v>
       </c>
@@ -3213,107 +3297,110 @@
       <c r="C20" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" t="s">
+      <c r="D20" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="G20">
+      <c r="E20" s="30">
         <v>10</v>
       </c>
-      <c r="H20">
+      <c r="F20" s="30">
         <v>24</v>
       </c>
-      <c r="I20">
+      <c r="G20" s="30">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="K20">
+      <c r="H20" s="38">
         <v>12</v>
       </c>
-      <c r="L20">
+      <c r="I20" s="38">
         <v>36</v>
       </c>
-      <c r="M20">
-        <f>SUM(K20:L20)</f>
+      <c r="J20" s="38">
+        <f>SUM(H20:I20)</f>
         <v>48</v>
       </c>
-      <c r="N20">
-        <f>SUM(K20:K23)</f>
+      <c r="K20" s="38">
+        <f>SUM(H20:H23)</f>
         <v>24</v>
       </c>
-      <c r="O20">
-        <f t="shared" ref="O20:P20" si="1">SUM(L20:L23)</f>
+      <c r="L20" s="38">
+        <f t="shared" ref="L20:M20" si="1">SUM(I20:I23)</f>
         <v>53</v>
       </c>
-      <c r="P20">
+      <c r="M20" s="38">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" t="s">
+      <c r="D21" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="G21">
+      <c r="E21" s="30">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="F21" s="30">
         <v>12</v>
       </c>
-      <c r="I21">
+      <c r="G21" s="30">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" t="s">
+      <c r="D22" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="G22">
+      <c r="E22" s="30">
         <v>4</v>
       </c>
-      <c r="H22">
+      <c r="F22" s="30">
         <v>8</v>
       </c>
-      <c r="I22">
+      <c r="G22" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="K22">
+      <c r="H22" s="38">
         <v>12</v>
       </c>
-      <c r="L22">
+      <c r="I22" s="38">
         <v>17</v>
       </c>
-      <c r="M22">
-        <f>SUM(K22:L22)</f>
+      <c r="J22" s="38">
+        <f>SUM(H22:I22)</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>148</v>
       </c>
@@ -3323,71 +3410,73 @@
       <c r="C23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" t="s">
+      <c r="D23" s="30" t="s">
         <v>640</v>
       </c>
-      <c r="G23">
+      <c r="E23" s="30">
         <v>8</v>
       </c>
-      <c r="H23">
+      <c r="F23" s="30">
         <v>9</v>
       </c>
-      <c r="I23">
+      <c r="G23" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" t="s">
+      <c r="D24" s="30" t="s">
         <v>552</v>
       </c>
-      <c r="G24">
+      <c r="E24" s="30">
         <v>8</v>
       </c>
-      <c r="H24">
-        <v>15</v>
-      </c>
-      <c r="I24">
+      <c r="F24" s="30">
+        <v>15</v>
+      </c>
+      <c r="G24" s="30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="K24">
+      <c r="H24" s="38">
         <v>40</v>
       </c>
-      <c r="L24">
+      <c r="I24" s="38">
         <v>23</v>
       </c>
-      <c r="M24">
-        <f>SUM(K24:L24)</f>
+      <c r="J24" s="38">
+        <f>SUM(H24:I24)</f>
         <v>63</v>
       </c>
-      <c r="N24">
-        <f>SUM(K24:K28)</f>
+      <c r="K24" s="38">
+        <f>SUM(H24:H28)</f>
         <v>106</v>
       </c>
-      <c r="O24">
-        <f t="shared" ref="O24:P24" si="2">SUM(L24:L28)</f>
+      <c r="L24" s="38">
+        <f t="shared" ref="L24:M24" si="2">SUM(I24:I28)</f>
         <v>58</v>
       </c>
-      <c r="P24">
+      <c r="M24" s="38">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>165</v>
       </c>
@@ -3397,59 +3486,64 @@
       <c r="C25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" t="s">
+      <c r="D25" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="G25">
+      <c r="E25" s="30">
         <v>32</v>
       </c>
-      <c r="H25">
+      <c r="F25" s="30">
         <v>8</v>
       </c>
-      <c r="I25">
+      <c r="G25" s="30">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" t="s">
+      <c r="D26" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="G26">
+      <c r="E26" s="30">
         <v>47</v>
       </c>
-      <c r="H26">
+      <c r="F26" s="30">
         <v>25</v>
       </c>
-      <c r="I26">
+      <c r="G26" s="30">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="K26">
+      <c r="H26" s="38">
         <v>66</v>
       </c>
-      <c r="L26">
+      <c r="I26" s="38">
         <v>35</v>
       </c>
-      <c r="M26">
-        <f>SUM(K26:L26)</f>
+      <c r="J26" s="38">
+        <f>SUM(H26:I26)</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>180</v>
       </c>
@@ -3459,97 +3553,103 @@
       <c r="C27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" t="s">
+      <c r="D27" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="G27">
+      <c r="E27" s="30">
         <v>8</v>
       </c>
-      <c r="H27">
+      <c r="F27" s="30">
         <v>5</v>
       </c>
-      <c r="I27">
+      <c r="G27" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="31" t="s">
         <v>558</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" t="s">
+      <c r="D28" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="G28">
+      <c r="E28" s="30">
         <v>11</v>
       </c>
-      <c r="H28">
+      <c r="F28" s="30">
         <v>5</v>
       </c>
-      <c r="I28">
+      <c r="G28" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" t="s">
+      <c r="D29" s="30" t="s">
         <v>569</v>
       </c>
-      <c r="G29">
+      <c r="E29" s="30">
         <v>11</v>
       </c>
-      <c r="H29">
+      <c r="F29" s="30">
         <v>21</v>
       </c>
-      <c r="I29">
+      <c r="G29" s="30">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="K29">
+      <c r="H29" s="38">
         <v>50</v>
       </c>
-      <c r="L29">
+      <c r="I29" s="38">
         <v>151</v>
       </c>
-      <c r="M29">
-        <f>SUM(K29:L29)</f>
+      <c r="J29" s="38">
+        <f>SUM(H29:I29)</f>
         <v>201</v>
       </c>
-      <c r="N29">
-        <f>SUM(K29:K34)</f>
+      <c r="K29" s="38">
+        <f>SUM(H29:H34)</f>
         <v>151</v>
       </c>
-      <c r="O29">
-        <f t="shared" ref="O29:P29" si="3">SUM(L29:L34)</f>
+      <c r="L29" s="38">
+        <f t="shared" ref="L29:M29" si="3">SUM(I29:I34)</f>
         <v>188</v>
       </c>
-      <c r="P29">
+      <c r="M29" s="38">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>226</v>
       </c>
@@ -3559,23 +3659,27 @@
       <c r="C30" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" t="s">
+      <c r="D30" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="G30">
+      <c r="E30" s="30">
         <v>19</v>
       </c>
-      <c r="H30">
+      <c r="F30" s="30">
         <v>97</v>
       </c>
-      <c r="I30">
+      <c r="G30" s="30">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>230</v>
       </c>
@@ -3585,59 +3689,64 @@
       <c r="C31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" t="s">
+      <c r="D31" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="G31">
+      <c r="E31" s="30">
         <v>20</v>
       </c>
-      <c r="H31">
+      <c r="F31" s="30">
         <v>33</v>
       </c>
-      <c r="I31">
+      <c r="G31" s="30">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" t="s">
+      <c r="D32" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="G32">
+      <c r="E32" s="30">
         <v>32</v>
       </c>
-      <c r="H32">
+      <c r="F32" s="30">
         <v>18</v>
       </c>
-      <c r="I32">
+      <c r="G32" s="30">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="K32">
+      <c r="H32" s="38">
         <v>101</v>
       </c>
-      <c r="L32">
+      <c r="I32" s="38">
         <v>37</v>
       </c>
-      <c r="M32">
-        <f>SUM(K32:L32)</f>
+      <c r="J32" s="38">
+        <f>SUM(H32:I32)</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>261</v>
       </c>
@@ -3647,23 +3756,27 @@
       <c r="C33" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" t="s">
+      <c r="D33" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="G33">
+      <c r="E33" s="30">
         <v>31</v>
       </c>
-      <c r="H33">
+      <c r="F33" s="30">
         <v>1</v>
       </c>
-      <c r="I33">
+      <c r="G33" s="30">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>282</v>
       </c>
@@ -3673,83 +3786,93 @@
       <c r="C34" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" t="s">
+      <c r="D34" s="30" t="s">
         <v>578</v>
       </c>
-      <c r="G34">
+      <c r="E34" s="30">
         <v>38</v>
       </c>
-      <c r="H34">
+      <c r="F34" s="30">
         <v>18</v>
       </c>
-      <c r="I34">
+      <c r="G34" s="30">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="F37" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="I37" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="K37" t="s">
+      <c r="H37" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="N37" t="s">
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="30" t="s">
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" t="s">
+      <c r="D38" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="G38" t="s">
+      <c r="E38" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="H38" t="s">
+      <c r="F38" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="I38" t="s">
+      <c r="G38" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="K38" t="s">
+      <c r="H38" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="L38" t="s">
+      <c r="I38" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="M38" t="s">
+      <c r="J38" s="33" t="s">
         <v>635</v>
       </c>
-      <c r="N38" t="s">
+      <c r="K38" s="33" t="s">
         <v>642</v>
       </c>
-      <c r="O38" t="s">
+      <c r="L38" s="33" t="s">
         <v>636</v>
       </c>
-      <c r="P38" t="s">
+      <c r="M38" s="33" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="31" t="s">
         <v>301</v>
       </c>
@@ -3759,130 +3882,130 @@
       <c r="C39" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31" t="s">
+      <c r="D39" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="G39" s="31">
+      <c r="E39" s="32">
         <v>30</v>
       </c>
-      <c r="H39" s="31">
+      <c r="F39" s="32">
         <v>34</v>
       </c>
-      <c r="I39" s="31">
+      <c r="G39" s="32">
         <v>64</v>
       </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31">
+      <c r="H39" s="37">
         <v>64</v>
       </c>
-      <c r="L39" s="31">
+      <c r="I39" s="37">
         <v>89</v>
       </c>
-      <c r="M39">
-        <f>SUM(K39:L39)</f>
+      <c r="J39" s="38">
+        <f>SUM(H39:I39)</f>
         <v>153</v>
       </c>
-      <c r="N39">
-        <f>SUM(K39:K48)</f>
+      <c r="K39" s="38">
+        <f>SUM(H39:H48)</f>
         <v>167</v>
       </c>
-      <c r="O39">
-        <f t="shared" ref="O39:P39" si="4">SUM(L39:L48)</f>
+      <c r="L39" s="38">
+        <f t="shared" ref="L39:M39" si="4">SUM(I39:I48)</f>
         <v>202</v>
       </c>
-      <c r="P39">
+      <c r="M39" s="38">
         <f t="shared" si="4"/>
         <v>369</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="30" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30" t="s">
+      <c r="D40" s="32" t="s">
         <v>581</v>
       </c>
-      <c r="G40" s="30">
+      <c r="E40" s="32">
         <v>1</v>
       </c>
-      <c r="H40" s="30">
+      <c r="F40" s="32">
         <v>12</v>
       </c>
-      <c r="I40" s="30">
+      <c r="G40" s="32">
         <v>13</v>
       </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="30" t="s">
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30" t="s">
+      <c r="D41" s="32" t="s">
         <v>651</v>
       </c>
-      <c r="G41" s="30">
+      <c r="E41" s="32">
         <v>4</v>
       </c>
-      <c r="H41" s="30">
+      <c r="F41" s="32">
         <v>32</v>
       </c>
-      <c r="I41" s="30">
+      <c r="G41" s="32">
         <v>36</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="B42" s="30" t="s">
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B42" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30" t="s">
+      <c r="D42" s="32" t="s">
         <v>606</v>
       </c>
-      <c r="G42" s="30">
+      <c r="E42" s="32">
         <v>29</v>
       </c>
-      <c r="H42" s="30">
+      <c r="F42" s="32">
         <v>11</v>
       </c>
-      <c r="I42" s="30">
+      <c r="G42" s="32">
         <v>40</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="32" t="s">
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="35" t="s">
         <v>322</v>
       </c>
       <c r="B43" s="31" t="s">
@@ -3891,89 +4014,91 @@
       <c r="C43" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31" t="s">
+      <c r="D43" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="G43" s="31">
+      <c r="E43" s="32">
         <v>17</v>
       </c>
-      <c r="H43" s="31">
+      <c r="F43" s="32">
         <v>23</v>
       </c>
-      <c r="I43" s="31">
+      <c r="G43" s="32">
         <v>40</v>
       </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31">
+      <c r="H43" s="37">
         <v>66</v>
       </c>
-      <c r="L43" s="31">
+      <c r="I43" s="37">
         <v>58</v>
       </c>
-      <c r="M43">
-        <f>SUM(K43:L43)</f>
+      <c r="J43" s="38">
+        <f>SUM(H43:I43)</f>
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="30" t="s">
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30" t="s">
+      <c r="D44" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="G44" s="30">
+      <c r="E44" s="32">
         <v>0</v>
       </c>
-      <c r="H44" s="30">
+      <c r="F44" s="32">
         <v>13</v>
       </c>
-      <c r="I44" s="30">
+      <c r="G44" s="32">
         <v>13</v>
       </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30" t="s">
+      <c r="D45" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="G45" s="30">
+      <c r="E45" s="32">
         <v>49</v>
       </c>
-      <c r="H45" s="30">
+      <c r="F45" s="32">
         <v>22</v>
       </c>
-      <c r="I45" s="30">
+      <c r="G45" s="32">
         <v>71</v>
       </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
         <v>343</v>
       </c>
@@ -3983,89 +4108,91 @@
       <c r="C46" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31" t="s">
+      <c r="D46" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="G46" s="31">
+      <c r="E46" s="32">
         <v>11</v>
       </c>
-      <c r="H46" s="31">
+      <c r="F46" s="32">
         <v>21</v>
       </c>
-      <c r="I46" s="31">
+      <c r="G46" s="32">
         <v>32</v>
       </c>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31">
+      <c r="H46" s="37">
         <v>37</v>
       </c>
-      <c r="L46" s="31">
+      <c r="I46" s="37">
         <v>55</v>
       </c>
-      <c r="M46">
-        <f>SUM(K46:L46)</f>
+      <c r="J46" s="38">
+        <f>SUM(H46:I46)</f>
         <v>92</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="30" t="s">
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="s">
+      <c r="D47" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="G47" s="30">
+      <c r="E47" s="32">
         <v>1</v>
       </c>
-      <c r="H47" s="30">
+      <c r="F47" s="32">
         <v>14</v>
       </c>
-      <c r="I47" s="30">
-        <v>15</v>
-      </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="30" t="s">
+      <c r="G47" s="32">
+        <v>15</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="31" t="s">
         <v>352</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30" t="s">
+      <c r="D48" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="G48" s="30">
+      <c r="E48" s="32">
         <v>25</v>
       </c>
-      <c r="H48" s="30">
+      <c r="F48" s="32">
         <v>20</v>
       </c>
-      <c r="I48" s="30">
+      <c r="G48" s="32">
         <v>45</v>
       </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
         <v>357</v>
       </c>
@@ -4073,71 +4200,59 @@
       <c r="C49" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31" t="s">
+      <c r="D49" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="G49" s="31">
+      <c r="E49" s="32">
         <v>1</v>
       </c>
-      <c r="H49" s="31">
+      <c r="F49" s="32">
         <v>2</v>
       </c>
-      <c r="I49" s="31">
+      <c r="G49" s="32">
         <v>3</v>
       </c>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31">
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38">
         <v>1</v>
       </c>
-      <c r="L49" s="31">
+      <c r="L49" s="38">
         <v>5</v>
       </c>
-      <c r="M49">
-        <f>SUM(K49:L49)</f>
+      <c r="M49" s="38">
         <v>6</v>
       </c>
-      <c r="N49">
-        <f>SUM(K49:K50)</f>
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ref="O49:P49" si="5">SUM(L49:L50)</f>
-        <v>5</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="30" t="s">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30" t="s">
+      <c r="D50" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="G50" s="30">
+      <c r="E50" s="32">
         <v>0</v>
       </c>
-      <c r="H50" s="30">
+      <c r="F50" s="32">
         <v>3</v>
       </c>
-      <c r="I50" s="30">
+      <c r="G50" s="32">
         <v>3</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
         <v>371</v>
       </c>
@@ -4145,71 +4260,59 @@
       <c r="C51" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31" t="s">
+      <c r="D51" s="32" t="s">
         <v>653</v>
       </c>
-      <c r="G51" s="31">
+      <c r="E51" s="32">
         <v>18</v>
       </c>
-      <c r="H51" s="31">
+      <c r="F51" s="32">
         <v>5</v>
       </c>
-      <c r="I51" s="31">
+      <c r="G51" s="32">
         <v>23</v>
       </c>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31">
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38">
         <v>19</v>
       </c>
-      <c r="L51" s="31">
+      <c r="L51" s="38">
         <v>14</v>
       </c>
-      <c r="M51">
-        <f>SUM(K51:L51)</f>
+      <c r="M51" s="38">
         <v>33</v>
       </c>
-      <c r="N51">
-        <f>SUM(K51)</f>
-        <v>19</v>
-      </c>
-      <c r="O51">
-        <f t="shared" ref="O51:P51" si="6">SUM(L51)</f>
-        <v>14</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="6"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="30" t="s">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30" t="s">
+      <c r="D52" s="32" t="s">
         <v>654</v>
       </c>
-      <c r="G52" s="30">
+      <c r="E52" s="32">
         <v>1</v>
       </c>
-      <c r="H52" s="30">
+      <c r="F52" s="32">
         <v>9</v>
       </c>
-      <c r="I52" s="30">
+      <c r="G52" s="32">
         <v>10</v>
       </c>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
         <v>416</v>
       </c>
@@ -4219,157 +4322,158 @@
       <c r="C53" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31" t="s">
+      <c r="D53" s="32" t="s">
         <v>607</v>
       </c>
-      <c r="G53" s="31">
+      <c r="E53" s="32">
         <v>61</v>
       </c>
-      <c r="H53" s="31">
+      <c r="F53" s="32">
         <v>61</v>
       </c>
-      <c r="I53" s="31">
+      <c r="G53" s="32">
         <v>122</v>
       </c>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31">
+      <c r="H53" s="37">
         <v>83</v>
       </c>
-      <c r="L53" s="31">
+      <c r="I53" s="37">
         <v>109</v>
       </c>
-      <c r="M53">
-        <f>SUM(K53:L53)</f>
+      <c r="J53" s="38">
+        <f>SUM(H53:I53)</f>
         <v>192</v>
       </c>
-      <c r="N53">
-        <f>SUM(K53:K62)</f>
+      <c r="K53" s="38">
+        <f>SUM(H53:H62)</f>
         <v>116</v>
       </c>
-      <c r="O53">
-        <f t="shared" ref="O53:P53" si="7">SUM(L53:L62)</f>
+      <c r="L53" s="38">
+        <f t="shared" ref="L53:M53" si="5">SUM(I53:I62)</f>
         <v>173</v>
       </c>
-      <c r="P53">
-        <f t="shared" si="7"/>
+      <c r="M53" s="38">
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="31" t="s">
         <v>422</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C54" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30" t="s">
+      <c r="D54" s="32" t="s">
         <v>608</v>
       </c>
-      <c r="G54" s="30">
+      <c r="E54" s="32">
         <v>6</v>
       </c>
-      <c r="H54" s="30">
+      <c r="F54" s="32">
         <v>19</v>
       </c>
-      <c r="I54" s="30">
+      <c r="G54" s="32">
         <v>25</v>
       </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A55" s="30" t="s">
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30" t="s">
+      <c r="D55" s="32" t="s">
         <v>609</v>
       </c>
-      <c r="G55" s="30">
+      <c r="E55" s="32">
         <v>2</v>
       </c>
-      <c r="H55" s="30">
+      <c r="F55" s="32">
         <v>2</v>
       </c>
-      <c r="I55" s="30">
+      <c r="G55" s="32">
         <v>4</v>
       </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A56" s="30" t="s">
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="C56" s="30" t="s">
+      <c r="C56" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30" t="s">
+      <c r="D56" s="32" t="s">
         <v>610</v>
       </c>
-      <c r="G56" s="30">
+      <c r="E56" s="32">
         <v>13</v>
       </c>
-      <c r="H56" s="30">
+      <c r="F56" s="32">
         <v>24</v>
       </c>
-      <c r="I56" s="30">
+      <c r="G56" s="32">
         <v>37</v>
       </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A57" s="30" t="s">
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="31" t="s">
         <v>436</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C57" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30" t="s">
+      <c r="D57" s="32" t="s">
         <v>612</v>
       </c>
-      <c r="G57" s="30">
+      <c r="E57" s="32">
         <v>1</v>
       </c>
-      <c r="H57" s="30">
+      <c r="F57" s="32">
         <v>3</v>
       </c>
-      <c r="I57" s="30">
+      <c r="G57" s="32">
         <v>4</v>
       </c>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
         <v>442</v>
       </c>
@@ -4379,61 +4483,62 @@
       <c r="C58" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31" t="s">
+      <c r="D58" s="32" t="s">
         <v>613</v>
       </c>
-      <c r="G58" s="31">
+      <c r="E58" s="32">
         <v>12</v>
       </c>
-      <c r="H58" s="31">
+      <c r="F58" s="32">
         <v>8</v>
       </c>
-      <c r="I58" s="31">
+      <c r="G58" s="32">
         <v>20</v>
       </c>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31">
+      <c r="H58" s="37">
         <v>22</v>
       </c>
-      <c r="L58" s="31">
-        <v>15</v>
-      </c>
-      <c r="M58">
-        <f>SUM(K58:L58)</f>
+      <c r="I58" s="37">
+        <v>15</v>
+      </c>
+      <c r="J58" s="38">
+        <f>SUM(H58:I58)</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A59" s="30" t="s">
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="31" t="s">
         <v>615</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30" t="s">
+      <c r="D59" s="32" t="s">
         <v>614</v>
       </c>
-      <c r="G59" s="30">
+      <c r="E59" s="32">
         <v>10</v>
       </c>
-      <c r="H59" s="30">
+      <c r="F59" s="32">
         <v>7</v>
       </c>
-      <c r="I59" s="30">
+      <c r="G59" s="32">
         <v>17</v>
       </c>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
         <v>466</v>
       </c>
@@ -4443,90 +4548,184 @@
       <c r="C60" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31" t="s">
+      <c r="D60" s="32" t="s">
         <v>527</v>
       </c>
-      <c r="G60" s="31">
+      <c r="E60" s="32">
         <v>2</v>
       </c>
-      <c r="H60" s="31">
+      <c r="F60" s="32">
         <v>13</v>
       </c>
-      <c r="I60" s="31">
-        <v>15</v>
-      </c>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31">
+      <c r="G60" s="32">
+        <v>15</v>
+      </c>
+      <c r="H60" s="37">
         <v>11</v>
       </c>
-      <c r="L60" s="31">
+      <c r="I60" s="37">
         <v>49</v>
       </c>
-      <c r="M60">
-        <f>SUM(K60:L60)</f>
+      <c r="J60" s="38">
+        <f>SUM(H60:I60)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A61" s="30" t="s">
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="31" t="s">
         <v>514</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30" t="s">
+      <c r="D61" s="32" t="s">
         <v>618</v>
       </c>
-      <c r="G61" s="30">
+      <c r="E61" s="32">
         <v>1</v>
       </c>
-      <c r="H61" s="30">
+      <c r="F61" s="32">
         <v>18</v>
       </c>
-      <c r="I61" s="30">
+      <c r="G61" s="32">
         <v>19</v>
       </c>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A62" s="30" t="s">
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30" t="s">
+      <c r="D62" s="32" t="s">
         <v>623</v>
       </c>
-      <c r="G62" s="30">
+      <c r="E62" s="32">
         <v>8</v>
       </c>
-      <c r="H62" s="30">
+      <c r="F62" s="32">
         <v>18</v>
       </c>
-      <c r="I62" s="30">
+      <c r="G62" s="32">
         <v>26</v>
       </c>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
     </row>
   </sheetData>
+  <mergeCells count="89">
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="M3:M19"/>
+    <mergeCell ref="L3:L19"/>
+    <mergeCell ref="K3:K19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M34"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="M53:M62"/>
+    <mergeCell ref="L53:L62"/>
+    <mergeCell ref="K53:K62"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="I53:I57"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="M39:M48"/>
+    <mergeCell ref="L39:L48"/>
+    <mergeCell ref="K39:K48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K49:K50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4534,7 +4733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DAF14F-EBE8-48E9-B624-8C1D5FB02F1B}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -5518,7 +5717,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6274,7 +6473,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8149,7 +8348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C927460-36C8-484C-AE56-58611E00D64E}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -10581,7 +10780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C5DE1E-145B-4A8F-AEE5-D18F1EFBA277}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>

--- a/theme/codebook_debriefing.xlsx
+++ b/theme/codebook_debriefing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ai_sec_dev\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DC5F22-4B46-4DD2-A090-59D7ED742D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF49AB2-CC13-4FC1-B4AD-F658C260CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="19420" xr2:uid="{5DF71104-D53B-4CC1-AE8D-1A174AA18D66}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="657">
   <si>
     <t>Freq (new)</t>
   </si>
@@ -2124,6 +2124,9 @@
   </si>
   <si>
     <t>Secure File Format Adoption</t>
+  </si>
+  <si>
+    <t>Implementation of Data Guardrails</t>
   </si>
 </sst>
 </file>
@@ -2309,13 +2312,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2654,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281877C6-5434-4B1B-A38D-8AAABE8A308D}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2667,29 +2670,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>643</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -2755,25 +2758,25 @@
         <f>SUM(E3:F3)</f>
         <v>16</v>
       </c>
-      <c r="H3" s="38">
+      <c r="H3" s="36">
         <v>85</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="36">
         <v>144</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="36">
         <f>SUM(H3:I3)</f>
         <v>229</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="36">
         <f>SUM(H3:H19)</f>
         <v>448</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="36">
         <f>SUM(I3:I19)</f>
         <v>497</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="36">
         <f>SUM(J3:J19)</f>
         <v>945</v>
       </c>
@@ -2801,12 +2804,12 @@
         <f t="shared" ref="G4:G34" si="0">SUM(E4:F4)</f>
         <v>85</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2831,12 +2834,12 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2861,12 +2864,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -2891,12 +2894,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -2921,12 +2924,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -2951,12 +2954,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
@@ -2981,19 +2984,19 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="36">
         <v>43</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="36">
         <v>119</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="36">
         <f>SUM(H10:I10)</f>
         <v>162</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -3018,12 +3021,12 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -3048,19 +3051,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="36">
         <v>80</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="36">
         <v>102</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <f>SUM(H12:I12)</f>
         <v>182</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -3085,12 +3088,12 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -3115,12 +3118,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -3145,19 +3148,19 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="36">
         <v>3</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="36">
         <v>44</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="36">
         <f>SUM(H15:I15)</f>
         <v>47</v>
       </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -3182,12 +3185,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -3212,19 +3215,19 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="36">
         <v>237</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="36">
         <v>88</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="36">
         <f>SUM(H17:I17)</f>
         <v>325</v>
       </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -3249,12 +3252,12 @@
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3280,12 +3283,12 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
@@ -3310,25 +3313,25 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="36">
         <v>12</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="36">
         <v>36</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="36">
         <f>SUM(H20:I20)</f>
         <v>48</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="36">
         <f>SUM(H20:H23)</f>
         <v>24</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="36">
         <f t="shared" ref="L20:M20" si="1">SUM(I20:I23)</f>
         <v>53</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="36">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -3356,12 +3359,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -3386,19 +3389,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="36">
         <v>12</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="36">
         <v>17</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="36">
         <f>SUM(H22:I22)</f>
         <v>29</v>
       </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -3423,12 +3426,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -3453,25 +3456,25 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="36">
         <v>40</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="36">
         <v>23</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="36">
         <f>SUM(H24:I24)</f>
         <v>63</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <f>SUM(H24:H28)</f>
         <v>106</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <f t="shared" ref="L24:M24" si="2">SUM(I24:I28)</f>
         <v>58</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="36">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
@@ -3499,12 +3502,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -3529,19 +3532,19 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="36">
         <v>66</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="36">
         <v>35</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="36">
         <f>SUM(H26:I26)</f>
         <v>101</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -3566,12 +3569,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
@@ -3596,12 +3599,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -3626,25 +3629,25 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="36">
         <v>50</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="36">
         <v>151</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="36">
         <f>SUM(H29:I29)</f>
         <v>201</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <f>SUM(H29:H34)</f>
         <v>151</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <f t="shared" ref="L29:M29" si="3">SUM(I29:I34)</f>
         <v>188</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="36">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
@@ -3672,12 +3675,12 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -3702,12 +3705,12 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -3732,19 +3735,19 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="36">
         <v>101</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="36">
         <v>37</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="36">
         <f>SUM(H32:I32)</f>
         <v>138</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -3769,12 +3772,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -3799,37 +3802,37 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="38" t="s">
         <v>649</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38" t="s">
         <v>643</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="38" t="s">
         <v>646</v>
       </c>
-      <c r="I37" s="36"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="36" t="s">
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
@@ -3900,19 +3903,19 @@
       <c r="I39" s="37">
         <v>89</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="36">
         <f>SUM(H39:I39)</f>
         <v>153</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="36">
         <f>SUM(H39:H48)</f>
         <v>167</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39" s="36">
         <f t="shared" ref="L39:M39" si="4">SUM(I39:I48)</f>
         <v>202</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39" s="36">
         <f t="shared" si="4"/>
         <v>369</v>
       </c>
@@ -3941,10 +3944,10 @@
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
@@ -3970,10 +3973,10 @@
       </c>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="36"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
@@ -3999,10 +4002,10 @@
       </c>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
@@ -4032,13 +4035,13 @@
       <c r="I43" s="37">
         <v>58</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="36">
         <f>SUM(H43:I43)</f>
         <v>124</v>
       </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
@@ -4064,10 +4067,10 @@
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
@@ -4093,10 +4096,10 @@
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="36"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
@@ -4126,13 +4129,13 @@
       <c r="I46" s="37">
         <v>55</v>
       </c>
-      <c r="J46" s="38">
+      <c r="J46" s="36">
         <f>SUM(H46:I46)</f>
         <v>92</v>
       </c>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
@@ -4158,10 +4161,10 @@
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
@@ -4187,10 +4190,10 @@
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
@@ -4214,20 +4217,20 @@
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38">
+      <c r="J49" s="36"/>
+      <c r="K49" s="36">
         <v>1</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="36">
         <v>5</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="36">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>363</v>
+        <v>656</v>
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="31" t="s">
@@ -4247,10 +4250,10 @@
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
@@ -4274,14 +4277,14 @@
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38">
+      <c r="J51" s="36"/>
+      <c r="K51" s="36">
         <v>19</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="36">
         <v>14</v>
       </c>
-      <c r="M51" s="38">
+      <c r="M51" s="36">
         <v>33</v>
       </c>
     </row>
@@ -4307,10 +4310,10 @@
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
@@ -4340,19 +4343,19 @@
       <c r="I53" s="37">
         <v>109</v>
       </c>
-      <c r="J53" s="38">
+      <c r="J53" s="36">
         <f>SUM(H53:I53)</f>
         <v>192</v>
       </c>
-      <c r="K53" s="38">
+      <c r="K53" s="36">
         <f>SUM(H53:H62)</f>
         <v>116</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="36">
         <f t="shared" ref="L53:M53" si="5">SUM(I53:I62)</f>
         <v>173</v>
       </c>
-      <c r="M53" s="38">
+      <c r="M53" s="36">
         <f t="shared" si="5"/>
         <v>289</v>
       </c>
@@ -4381,10 +4384,10 @@
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
@@ -4410,10 +4413,10 @@
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="36"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
@@ -4439,10 +4442,10 @@
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="38"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
@@ -4468,10 +4471,10 @@
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
@@ -4501,13 +4504,13 @@
       <c r="I58" s="37">
         <v>15</v>
       </c>
-      <c r="J58" s="38">
+      <c r="J58" s="36">
         <f>SUM(H58:I58)</f>
         <v>37</v>
       </c>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
+      <c r="K58" s="36"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
@@ -4533,10 +4536,10 @@
       </c>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="36"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
@@ -4566,13 +4569,13 @@
       <c r="I60" s="37">
         <v>49</v>
       </c>
-      <c r="J60" s="38">
+      <c r="J60" s="36">
         <f>SUM(H60:I60)</f>
         <v>60</v>
       </c>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
@@ -4598,10 +4601,10 @@
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
@@ -4627,70 +4630,29 @@
       </c>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="M3:M19"/>
-    <mergeCell ref="L3:L19"/>
-    <mergeCell ref="K3:K19"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M34"/>
-    <mergeCell ref="L29:L34"/>
-    <mergeCell ref="K29:K34"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="M53:M62"/>
-    <mergeCell ref="L53:L62"/>
-    <mergeCell ref="K53:K62"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="I53:I57"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="M39:M48"/>
-    <mergeCell ref="L39:L48"/>
-    <mergeCell ref="K39:K48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="K49:K50"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D1:F1"/>
@@ -4707,22 +4669,63 @@
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="H26:H28"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="M39:M48"/>
+    <mergeCell ref="L39:L48"/>
+    <mergeCell ref="K39:K48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="M53:M62"/>
+    <mergeCell ref="L53:L62"/>
+    <mergeCell ref="K53:K62"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="I53:I57"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M34"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="M3:M19"/>
+    <mergeCell ref="L3:L19"/>
+    <mergeCell ref="K3:K19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J12:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4733,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DAF14F-EBE8-48E9-B624-8C1D5FB02F1B}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/theme/codebook_debriefing.xlsx
+++ b/theme/codebook_debriefing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ai_sec_dev\theme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF49AB2-CC13-4FC1-B4AD-F658C260CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF0F0A3-89A6-49B3-913C-957B0789D49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="19420" xr2:uid="{5DF71104-D53B-4CC1-AE8D-1A174AA18D66}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="660">
   <si>
     <t>Freq (new)</t>
   </si>
@@ -2126,7 +2126,16 @@
     <t>Secure File Format Adoption</t>
   </si>
   <si>
-    <t>Implementation of Data Guardrails</t>
+    <t>Data Anonymization</t>
+  </si>
+  <si>
+    <t>Data Guardrails</t>
+  </si>
+  <si>
+    <t>Secure Prompt Techniques</t>
+  </si>
+  <si>
+    <t>Content Safety Filters</t>
   </si>
 </sst>
 </file>
@@ -2312,13 +2321,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2657,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281877C6-5434-4B1B-A38D-8AAABE8A308D}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2670,29 +2679,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
@@ -2758,25 +2767,25 @@
         <f>SUM(E3:F3)</f>
         <v>16</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="38">
         <v>85</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="38">
         <v>144</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="38">
         <f>SUM(H3:I3)</f>
         <v>229</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="38">
         <f>SUM(H3:H19)</f>
         <v>448</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="38">
         <f>SUM(I3:I19)</f>
         <v>497</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="38">
         <f>SUM(J3:J19)</f>
         <v>945</v>
       </c>
@@ -2804,12 +2813,12 @@
         <f t="shared" ref="G4:G34" si="0">SUM(E4:F4)</f>
         <v>85</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -2834,12 +2843,12 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -2864,12 +2873,12 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
@@ -2894,12 +2903,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
@@ -2924,12 +2933,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -2954,12 +2963,12 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
@@ -2984,19 +2993,19 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="38">
         <v>43</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="38">
         <v>119</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="38">
         <f>SUM(H10:I10)</f>
         <v>162</v>
       </c>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -3021,12 +3030,12 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -3051,19 +3060,19 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="38">
         <v>80</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="38">
         <v>102</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="38">
         <f>SUM(H12:I12)</f>
         <v>182</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
@@ -3088,12 +3097,12 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -3118,12 +3127,12 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -3148,19 +3157,19 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="38">
         <v>3</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="38">
         <v>44</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="38">
         <f>SUM(H15:I15)</f>
         <v>47</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -3185,12 +3194,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -3215,19 +3224,19 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="38">
         <v>237</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="38">
         <v>88</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="38">
         <f>SUM(H17:I17)</f>
         <v>325</v>
       </c>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
@@ -3252,12 +3261,12 @@
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="30"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -3283,12 +3292,12 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
@@ -3313,25 +3322,25 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="38">
         <v>12</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="38">
         <v>36</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="38">
         <f>SUM(H20:I20)</f>
         <v>48</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="38">
         <f>SUM(H20:H23)</f>
         <v>24</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="38">
         <f t="shared" ref="L20:M20" si="1">SUM(I20:I23)</f>
         <v>53</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="38">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -3359,12 +3368,12 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -3389,19 +3398,19 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="38">
         <v>12</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="38">
         <v>17</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="38">
         <f>SUM(H22:I22)</f>
         <v>29</v>
       </c>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -3426,12 +3435,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
@@ -3456,25 +3465,25 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="38">
         <v>40</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="38">
         <v>23</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="38">
         <f>SUM(H24:I24)</f>
         <v>63</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="38">
         <f>SUM(H24:H28)</f>
         <v>106</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="38">
         <f t="shared" ref="L24:M24" si="2">SUM(I24:I28)</f>
         <v>58</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="38">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
@@ -3502,12 +3511,12 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -3532,19 +3541,19 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="38">
         <v>66</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="38">
         <v>35</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="38">
         <f>SUM(H26:I26)</f>
         <v>101</v>
       </c>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -3569,12 +3578,12 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
@@ -3599,12 +3608,12 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -3629,25 +3638,25 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="38">
         <v>50</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="38">
         <v>151</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="38">
         <f>SUM(H29:I29)</f>
         <v>201</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="38">
         <f>SUM(H29:H34)</f>
         <v>151</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="38">
         <f t="shared" ref="L29:M29" si="3">SUM(I29:I34)</f>
         <v>188</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="38">
         <f t="shared" si="3"/>
         <v>339</v>
       </c>
@@ -3675,12 +3684,12 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -3705,12 +3714,12 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -3735,19 +3744,19 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="38">
         <v>101</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="38">
         <v>37</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="38">
         <f>SUM(H32:I32)</f>
         <v>138</v>
       </c>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -3772,12 +3781,12 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -3802,37 +3811,37 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="36"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38" t="s">
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="s">
         <v>643</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H37" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38" t="s">
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36" t="s">
         <v>647</v>
       </c>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="34" t="s">
@@ -3903,19 +3912,19 @@
       <c r="I39" s="37">
         <v>89</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="38">
         <f>SUM(H39:I39)</f>
         <v>153</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="38">
         <f>SUM(H39:H48)</f>
         <v>167</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="38">
         <f t="shared" ref="L39:M39" si="4">SUM(I39:I48)</f>
         <v>202</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="38">
         <f t="shared" si="4"/>
         <v>369</v>
       </c>
@@ -3944,10 +3953,10 @@
       </c>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="31" t="s">
@@ -3973,10 +3982,10 @@
       </c>
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="31" t="s">
@@ -4002,10 +4011,10 @@
       </c>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
@@ -4035,13 +4044,13 @@
       <c r="I43" s="37">
         <v>58</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="38">
         <f>SUM(H43:I43)</f>
         <v>124</v>
       </c>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="36"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="31" t="s">
@@ -4067,10 +4076,10 @@
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="35" t="s">
@@ -4096,10 +4105,10 @@
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
@@ -4129,13 +4138,13 @@
       <c r="I46" s="37">
         <v>55</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="38">
         <f>SUM(H46:I46)</f>
         <v>92</v>
       </c>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
@@ -4161,10 +4170,10 @@
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
@@ -4190,14 +4199,14 @@
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>357</v>
+        <v>656</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="31" t="s">
@@ -4217,20 +4226,20 @@
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36">
+      <c r="J49" s="38"/>
+      <c r="K49" s="38">
         <v>1</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="38">
         <v>5</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="31" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="31" t="s">
@@ -4250,14 +4259,14 @@
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>371</v>
+        <v>658</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
@@ -4277,20 +4286,20 @@
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36">
+      <c r="J51" s="38"/>
+      <c r="K51" s="38">
         <v>19</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="38">
         <v>14</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M51" s="38">
         <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>387</v>
+        <v>659</v>
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="31" t="s">
@@ -4310,10 +4319,10 @@
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="37"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
@@ -4343,19 +4352,19 @@
       <c r="I53" s="37">
         <v>109</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="38">
         <f>SUM(H53:I53)</f>
         <v>192</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="38">
         <f>SUM(H53:H62)</f>
         <v>116</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="38">
         <f t="shared" ref="L53:M53" si="5">SUM(I53:I62)</f>
         <v>173</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="38">
         <f t="shared" si="5"/>
         <v>289</v>
       </c>
@@ -4384,10 +4393,10 @@
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="37"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
@@ -4413,10 +4422,10 @@
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="37"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="36"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
@@ -4442,10 +4451,10 @@
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="37"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
@@ -4471,10 +4480,10 @@
       </c>
       <c r="H57" s="37"/>
       <c r="I57" s="37"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
@@ -4504,13 +4513,13 @@
       <c r="I58" s="37">
         <v>15</v>
       </c>
-      <c r="J58" s="36">
+      <c r="J58" s="38">
         <f>SUM(H58:I58)</f>
         <v>37</v>
       </c>
-      <c r="K58" s="36"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
@@ -4536,10 +4545,10 @@
       </c>
       <c r="H59" s="37"/>
       <c r="I59" s="37"/>
-      <c r="J59" s="36"/>
-      <c r="K59" s="36"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
@@ -4569,13 +4578,13 @@
       <c r="I60" s="37">
         <v>49</v>
       </c>
-      <c r="J60" s="36">
+      <c r="J60" s="38">
         <f>SUM(H60:I60)</f>
         <v>60</v>
       </c>
-      <c r="K60" s="36"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
@@ -4601,10 +4610,10 @@
       </c>
       <c r="H61" s="37"/>
       <c r="I61" s="37"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
@@ -4630,13 +4639,86 @@
       </c>
       <c r="H62" s="37"/>
       <c r="I62" s="37"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="J3:J9"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H3:H9"/>
+    <mergeCell ref="M3:M19"/>
+    <mergeCell ref="L3:L19"/>
+    <mergeCell ref="K3:K19"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M29:M34"/>
+    <mergeCell ref="L29:L34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="J29:J31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="M53:M62"/>
+    <mergeCell ref="L53:L62"/>
+    <mergeCell ref="K53:K62"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="I53:I57"/>
+    <mergeCell ref="H53:H57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="J60:J62"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="M39:M48"/>
+    <mergeCell ref="L39:L48"/>
+    <mergeCell ref="K39:K48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H26:H28"/>
     <mergeCell ref="K37:M37"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -4653,79 +4735,6 @@
     <mergeCell ref="L49:L50"/>
     <mergeCell ref="K51:K52"/>
     <mergeCell ref="K49:K50"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="M39:M48"/>
-    <mergeCell ref="L39:L48"/>
-    <mergeCell ref="K39:K48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H53:H57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="J60:J62"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="M53:M62"/>
-    <mergeCell ref="L53:L62"/>
-    <mergeCell ref="K53:K62"/>
-    <mergeCell ref="J53:J57"/>
-    <mergeCell ref="I53:I57"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M29:M34"/>
-    <mergeCell ref="L29:L34"/>
-    <mergeCell ref="K29:K34"/>
-    <mergeCell ref="J29:J31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="M3:M19"/>
-    <mergeCell ref="L3:L19"/>
-    <mergeCell ref="K3:K19"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="J12:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
